--- a/medicine/Enfance/Anne_Crahay/Anne_Crahay.xlsx
+++ b/medicine/Enfance/Anne_Crahay/Anne_Crahay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Crahay, née en 1973 à Verviers, est une autrice et illustratrice belge[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Crahay, née en 1973 à Verviers, est une autrice et illustratrice belge.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Crahay étudie les arts graphiques à l’École supérieure des arts Saint-Luc de Liège (ESA). Après trois années d’expérience dans le volontariat entre l’Italie, la France et le Mexique, elle s’installe dans le département des Ardennes où elle travaille tout d’abord dans le cinéma d’animation, avant de devenir graphiste indépendante[2],[3]. 
-En mars 2007, elle publie son premier album Dans le bidon de maman aux éditions Alice jeunesse. Anne Crahay enseigne le graphisme et l’illustration à l’ESA Saint-Luc Liège[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Crahay étudie les arts graphiques à l’École supérieure des arts Saint-Luc de Liège (ESA). Après trois années d’expérience dans le volontariat entre l’Italie, la France et le Mexique, elle s’installe dans le département des Ardennes où elle travaille tout d’abord dans le cinéma d’animation, avant de devenir graphiste indépendante,. 
+En mars 2007, elle publie son premier album Dans le bidon de maman aux éditions Alice jeunesse. Anne Crahay enseigne le graphisme et l’illustration à l’ESA Saint-Luc Liège.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi une liste non exhaustive :
 Dans le bidon de maman, Anne Crahay, Florian Rudzinski, Alice Jeunesse, Coll. Albums, 28p, 2007,  (ISBN 2874260606)
@@ -564,12 +580,12 @@
 Let's gommettes !, Éditions de L'Élan vert, Coll. Activités, 2016,  (ISBN 2844554067)
 Cric croc !, Albin Michel, 10p, 2016,  (ISBN 2226321225)
 Boucle, Cécile Alix, Illu. Anne Crahay, Éditions de L'Élan vert, Coll. Les petits m, 32p, 2016,  (ISBN 2844553605)
-Mes tableaux à histoires, Cécile Alix, Illu. Anne Crahay, Éditions de L'Élan vert, Coll. Pont des Arts, 32p, 2017,  (ISBN 2844554822)[5]
+Mes tableaux à histoires, Cécile Alix, Illu. Anne Crahay, Éditions de L'Élan vert, Coll. Pont des Arts, 32p, 2017,  (ISBN 2844554822)
 Guili-guili !, Albin Michel, 10p, 2017,  (ISBN 2226396543)
 Qui se cache ?, Albin Michel, 10p, 2017,  (ISBN 2226396551)
-Bonjour le calme, Albin Michel, 44p, 2017,  (ISBN 2226394222)[6],[7]
+Bonjour le calme, Albin Michel, 44p, 2017,  (ISBN 2226394222),
 Bonjour sommeil, Albin Michel, 44p, 2017,  (ISBN 2226399623)
-Bonjour colère, Albin Michel, 40p, 2018,  (ISBN 2226403205)[8]
+Bonjour colère, Albin Michel, 40p, 2018,  (ISBN 2226403205)
 Le petit poucet, Cécile Alix,  Illu. Anne Crahay, Éditions de L'Élan vert, Coll. Albums,  32p, 2017,  (ISBN 2844554423)
 Pie, chat, hibou, France Quatromme, Illu. Anne Crahay, Éditions de L'Élan vert, Coll. Albums, 2018, 32p,  (ISBN 2844555268)
 Bonjour, bonheur, Albin Michel, 44p, 2018,  (ISBN 2226437541)
